--- a/xlsx/平方公里_intext.xlsx
+++ b/xlsx/平方公里_intext.xlsx
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9D%A2%E7%A9%8D</t>
   </si>
   <si>
-    <t>面積</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_平方公里</t>
+    <t>面积</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_平方公里</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%88%B6</t>
@@ -65,25 +65,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E9%A0%83</t>
   </si>
   <si>
-    <t>公頃</t>
+    <t>公顷</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E7%95%9D</t>
   </si>
   <si>
-    <t>公畝</t>
+    <t>公亩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%95%9D</t>
   </si>
   <si>
-    <t>畝</t>
+    <t>亩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E7%95%9D</t>
   </si>
   <si>
-    <t>英畝</t>
+    <t>英亩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E6%96%B9%E8%8B%B1%E9%87%8C</t>
@@ -143,7 +143,7 @@
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E9%9D%A2%E7%A9%8D%E5%96%AE%E4%BD%8D</t>
   </si>
   <si>
-    <t>Template talk-面積單位</t>
+    <t>Template talk-面积单位</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%82%E5%88%B6</t>
@@ -167,13 +167,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8A%81_(%E5%96%AE%E4%BD%8D)</t>
   </si>
   <si>
-    <t>犁 (單位)</t>
+    <t>犁 (单位)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B2_(%E5%96%AE%E4%BD%8D)</t>
   </si>
   <si>
-    <t>甲 (單位)</t>
+    <t>甲 (单位)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9D%AA</t>
@@ -185,19 +185,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%88%B6%E5%96%AE%E4%BD%8D</t>
   </si>
   <si>
-    <t>英制單位</t>
+    <t>英制单位</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E6%96%B9%E7%A2%BC</t>
   </si>
   <si>
-    <t>平方碼</t>
+    <t>平方码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E6%96%B9%E5%A0%AF%E7%B1%B3</t>
   </si>
   <si>
-    <t>平方堯米</t>
+    <t>平方尧米</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E6%96%B9%E4%BD%91%E7%B1%B3</t>
@@ -209,7 +209,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E6%96%B9%E6%BE%A4%E7%B1%B3</t>
   </si>
   <si>
-    <t>平方澤米</t>
+    <t>平方泽米</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E6%96%B9%E7%9A%86%E7%B1%B3</t>
@@ -293,7 +293,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E6%96%B9%E7%B4%8D%E7%B1%B3</t>
   </si>
   <si>
-    <t>平方納米</t>
+    <t>平方纳米</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E6%96%B9%E7%9A%AE%E7%B1%B3</t>
@@ -305,13 +305,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E6%96%B9%E9%A3%9B%E7%B1%B3</t>
   </si>
   <si>
-    <t>平方飛米</t>
+    <t>平方飞米</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E6%96%B9%E8%B2%BB%E7%B1%B3</t>
   </si>
   <si>
-    <t>平方費米</t>
+    <t>平方费米</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E6%96%B9%E9%98%BF%E7%B1%B3</t>
@@ -335,7 +335,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E6%96%B9%E5%B9%BA%E7%B1%B3</t>
   </si>
   <si>
-    <t>平方幺米</t>
+    <t>平方么米</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E6%96%B9%E6%94%B8%E7%B1%B3</t>
